--- a/Excel Documents/Database_Plan.xlsx
+++ b/Excel Documents/Database_Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CONS\Desktop\coursework Software design and analysis\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CONS\Desktop\coursework Software design and analysis\Database_Design_Git\Excel Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198508F5-2F35-4F66-96B7-06CD2C00709A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CF86D3-D920-4A0A-8A89-77C307F7C40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="3420" windowWidth="16404" windowHeight="10500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -652,7 +652,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="493">
   <si>
     <t>Highest Level</t>
   </si>
@@ -2663,6 +2663,9 @@
   </si>
   <si>
     <t>14)</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -3863,10 +3866,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5158,7 +5161,7 @@
   <dimension ref="A1:AC97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H73" zoomScale="56" zoomScaleNormal="38" workbookViewId="0">
-      <selection activeCell="J99" sqref="J99"/>
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6187,7 +6190,7 @@
       <c r="Z76" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="AA76" s="193"/>
+      <c r="AA76" s="194"/>
       <c r="AB76" s="40" t="s">
         <v>45</v>
       </c>
@@ -6196,8 +6199,8 @@
       </c>
     </row>
     <row r="77" spans="5:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="Z77" s="193"/>
-      <c r="AA77" s="193"/>
+      <c r="Z77" s="194"/>
+      <c r="AA77" s="194"/>
       <c r="AC77" s="13" t="s">
         <v>73</v>
       </c>
@@ -6206,8 +6209,8 @@
       <c r="Y78" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="Z78" s="193"/>
-      <c r="AA78" s="193"/>
+      <c r="Z78" s="194"/>
+      <c r="AA78" s="194"/>
       <c r="AC78" s="13" t="s">
         <v>74</v>
       </c>
@@ -6219,12 +6222,15 @@
       </c>
     </row>
     <row r="80" spans="5:29" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Z80" s="194" t="s">
+      <c r="Z80" s="193" t="s">
         <v>51</v>
       </c>
-      <c r="AA80" s="193"/>
+      <c r="AA80" s="194"/>
     </row>
     <row r="81" spans="8:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H81" t="s">
+        <v>492</v>
+      </c>
       <c r="Y81" s="13" t="s">
         <v>52</v>
       </c>
@@ -6304,10 +6310,10 @@
       <c r="H90" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I90" s="194" t="s">
+      <c r="I90" s="193" t="s">
         <v>51</v>
       </c>
-      <c r="J90" s="194"/>
+      <c r="J90" s="193"/>
     </row>
     <row r="91" spans="8:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I91" s="43" t="s">
@@ -6488,21 +6494,21 @@
         <v>82</v>
       </c>
       <c r="C4" s="203"/>
-      <c r="D4" s="193"/>
+      <c r="D4" s="194"/>
       <c r="E4" s="204"/>
     </row>
     <row r="5" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="45"/>
       <c r="B5" s="13"/>
       <c r="C5" s="203"/>
-      <c r="D5" s="193"/>
+      <c r="D5" s="194"/>
       <c r="E5" s="204"/>
     </row>
     <row r="6" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="45"/>
       <c r="B6" s="13"/>
       <c r="C6" s="203"/>
-      <c r="D6" s="193"/>
+      <c r="D6" s="194"/>
       <c r="E6" s="204"/>
     </row>
     <row r="7" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -7224,7 +7230,7 @@
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="203"/>
-      <c r="D4" s="193"/>
+      <c r="D4" s="194"/>
       <c r="E4" s="204"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
@@ -7244,7 +7250,7 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="203"/>
-      <c r="D5" s="193"/>
+      <c r="D5" s="194"/>
       <c r="E5" s="204"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
@@ -7264,7 +7270,7 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="203"/>
-      <c r="D6" s="193"/>
+      <c r="D6" s="194"/>
       <c r="E6" s="204"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -7413,20 +7419,20 @@
       <c r="B14" s="205" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="193"/>
-      <c r="D14" s="193"/>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="193"/>
-      <c r="J14" s="193"/>
-      <c r="K14" s="193"/>
-      <c r="L14" s="193"/>
-      <c r="M14" s="193"/>
-      <c r="N14" s="193"/>
-      <c r="O14" s="193"/>
-      <c r="P14" s="193"/>
+      <c r="C14" s="194"/>
+      <c r="D14" s="194"/>
+      <c r="E14" s="194"/>
+      <c r="F14" s="194"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="194"/>
+      <c r="I14" s="194"/>
+      <c r="J14" s="194"/>
+      <c r="K14" s="194"/>
+      <c r="L14" s="194"/>
+      <c r="M14" s="194"/>
+      <c r="N14" s="194"/>
+      <c r="O14" s="194"/>
+      <c r="P14" s="194"/>
     </row>
     <row r="15" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
@@ -7931,7 +7937,7 @@
       <c r="A4" s="45"/>
       <c r="B4" s="13"/>
       <c r="C4" s="203"/>
-      <c r="D4" s="193"/>
+      <c r="D4" s="194"/>
       <c r="E4" s="204"/>
       <c r="F4" s="69"/>
     </row>
@@ -7939,7 +7945,7 @@
       <c r="A5" s="45"/>
       <c r="B5" s="13"/>
       <c r="C5" s="203"/>
-      <c r="D5" s="193"/>
+      <c r="D5" s="194"/>
       <c r="E5" s="204"/>
       <c r="F5" s="69"/>
     </row>
@@ -7947,7 +7953,7 @@
       <c r="A6" s="45"/>
       <c r="B6" s="13"/>
       <c r="C6" s="203"/>
-      <c r="D6" s="193"/>
+      <c r="D6" s="194"/>
       <c r="E6" s="204"/>
       <c r="F6" s="69"/>
     </row>
@@ -8491,7 +8497,7 @@
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="203"/>
-      <c r="D4" s="193"/>
+      <c r="D4" s="194"/>
       <c r="E4" s="204"/>
       <c r="F4" s="69"/>
     </row>
@@ -8501,7 +8507,7 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="203"/>
-      <c r="D5" s="193"/>
+      <c r="D5" s="194"/>
       <c r="E5" s="204"/>
       <c r="F5" s="69"/>
     </row>
@@ -8511,7 +8517,7 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="203"/>
-      <c r="D6" s="193"/>
+      <c r="D6" s="194"/>
       <c r="E6" s="204"/>
       <c r="F6" s="69"/>
     </row>

--- a/Excel Documents/Database_Plan.xlsx
+++ b/Excel Documents/Database_Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CONS\Desktop\coursework Software design and analysis\Database_Design_Git\Excel Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CF86D3-D920-4A0A-8A89-77C307F7C40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149AB3BA-9A03-4535-973E-8C8EE8306906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="16404" windowHeight="10500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7380" windowHeight="14400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use Cases" sheetId="7" r:id="rId1"/>
@@ -5160,7 +5160,7 @@
   </sheetPr>
   <dimension ref="A1:AC97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H73" zoomScale="56" zoomScaleNormal="38" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
